--- a/code_dependencies.xlsx
+++ b/code_dependencies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icg20\Documents\GitHub\esft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{AE0FAFB8-CB82-43D2-957F-B7444FCBD9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2E4E2D-80CB-4056-B8AC-742DC7052B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8010" yWindow="690" windowWidth="17010" windowHeight="12615" activeTab="1" xr2:uid="{D42A947C-5274-D94B-A395-52989A0D6688}"/>
+    <workbookView xWindow="2940" yWindow="300" windowWidth="13755" windowHeight="14640" activeTab="2" xr2:uid="{D42A947C-5274-D94B-A395-52989A0D6688}"/>
   </bookViews>
   <sheets>
     <sheet name="data-raw" sheetId="12" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="R" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="142">
   <si>
     <t>all.Rds</t>
   </si>
@@ -200,9 +199,6 @@
     <t>who_summary_data.xlsx</t>
   </si>
   <si>
-    <t>None - at this point available just to test code</t>
-  </si>
-  <si>
     <t>These are just the list of countries for which we have fits available on the repo.</t>
   </si>
   <si>
@@ -227,12 +223,6 @@
     <t>Parameters</t>
   </si>
   <si>
-    <t>starting_date</t>
-  </si>
-  <si>
-    <t>params (get_parameters), capacity (get_country_capacity), test_strategy_params (set_testing_strategy), data (icl_data or downloaded fit from load_imperial_data)</t>
-  </si>
-  <si>
     <t>cases_weekly</t>
   </si>
   <si>
@@ -437,9 +427,6 @@
     <t>noncovid (noncovid.rda), ref_hcws (reference_hcw)</t>
   </si>
   <si>
-    <t>params (get_parameters), country_capacity (get_country_capacity), data (cases_weekly)</t>
-  </si>
-  <si>
     <t>pharmaceuticals (pharmaceuticals.rda), cases (cases_weekly)</t>
   </si>
   <si>
@@ -450,6 +437,33 @@
   </si>
   <si>
     <t>reference_hcw, get_country_capacity</t>
+  </si>
+  <si>
+    <t>WHO-COVID-19-global-data.csv</t>
+  </si>
+  <si>
+    <t>https://covid19.who.int/data</t>
+  </si>
+  <si>
+    <t>Changeable: can be downloaded again</t>
+  </si>
+  <si>
+    <t>None - but can be used to load data</t>
+  </si>
+  <si>
+    <t>transmission_scenarios.rda</t>
+  </si>
+  <si>
+    <t>who_data.rda</t>
+  </si>
+  <si>
+    <t>params (get_parameters), capacity (get_country_capacity), test_strategy_params (set_testing_strategy), data (icl_data or downloaded fit from load_imperial_data or who_data), user (uesr_input)</t>
+  </si>
+  <si>
+    <t>data_source</t>
+  </si>
+  <si>
+    <t>params (get_parameters), country_capacity (get_country_capacity), data (cases_weekly), user (user_input)</t>
   </si>
 </sst>
 </file>
@@ -547,37 +561,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
@@ -594,6 +594,18 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
@@ -624,10 +636,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D6C15863-E077-42B2-897E-41C27F9838A0}" name="Table_data_raw" displayName="Table_data_raw" ref="A1:M6" totalsRowShown="0">
   <autoFilter ref="A1:M6" xr:uid="{D6C15863-E077-42B2-897E-41C27F9838A0}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{7A35D943-B6AF-4A4E-AAC6-CC6AD31DBB1F}" name="Name" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{C1B0EA7D-7068-4F99-A25E-8215511624EC}" name="Extension" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{FE1068DD-DC3E-435C-8AFF-F68353AF2C81}" name="Date modified" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{F8EF76A3-EB5C-4314-B89D-5C6AEB2EF3FD}" name="Date created" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7A35D943-B6AF-4A4E-AAC6-CC6AD31DBB1F}" name="Name" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{C1B0EA7D-7068-4F99-A25E-8215511624EC}" name="Extension" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{FE1068DD-DC3E-435C-8AFF-F68353AF2C81}" name="Date modified" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{F8EF76A3-EB5C-4314-B89D-5C6AEB2EF3FD}" name="Date created" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{A168FF75-F335-4916-88B6-7F924D477E77}" name="Source"/>
     <tableColumn id="6" xr3:uid="{E1CFBB8B-1767-4EBB-B7ED-EEF69EC6FDE2}" name="Date accessed"/>
     <tableColumn id="7" xr3:uid="{F0574AC7-0C0B-44EB-8496-6C9D8DEE097E}" name="Manipulated?"/>
@@ -643,15 +655,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8CAA2781-C97D-4F12-92B6-524D72E7D0C6}" name="Table_data" displayName="Table_data" ref="A1:J11" totalsRowShown="0">
-  <autoFilter ref="A1:J11" xr:uid="{8CAA2781-C97D-4F12-92B6-524D72E7D0C6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8CAA2781-C97D-4F12-92B6-524D72E7D0C6}" name="Table_data" displayName="Table_data" ref="A1:J12" totalsRowShown="0">
+  <autoFilter ref="A1:J12" xr:uid="{8CAA2781-C97D-4F12-92B6-524D72E7D0C6}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{F0CFFAC0-A80A-4027-BFFA-930A7388E744}" name="Name" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{CDB694F1-D5BE-410E-8DE4-DE8498408431}" name="Extension" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{E6C72380-77B5-4358-B635-F949077469F4}" name="Date modified" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{A9012DFD-EF06-4D89-A7C0-47E192C08B37}" name="Date created" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{F0CFFAC0-A80A-4027-BFFA-930A7388E744}" name="Name" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{CDB694F1-D5BE-410E-8DE4-DE8498408431}" name="Extension" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{E6C72380-77B5-4358-B635-F949077469F4}" name="Date modified" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{A9012DFD-EF06-4D89-A7C0-47E192C08B37}" name="Date created" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{0D71B24E-5CFD-45B7-BD8A-80B7504DDB88}" name="Source"/>
-    <tableColumn id="15" xr3:uid="{5E537C7D-9A12-4024-B03F-DC558C190456}" name="Date accessed" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{5E537C7D-9A12-4024-B03F-DC558C190456}" name="Date accessed" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{F818A789-A0E6-4DDA-89A7-7B15FA2F94C3}" name="Manipulated?"/>
     <tableColumn id="9" xr3:uid="{F66865CC-B5B5-4A3F-9319-30E276E9973A}" name="If manipulated, how?"/>
     <tableColumn id="10" xr3:uid="{703C32E0-55A1-4E25-BFAF-B58C630F4E8E}" name="Fixed/Changeable"/>
@@ -665,9 +677,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{52C6C1A6-97C1-45E7-A0A8-AC4DEEF38E41}" name="Table_R" displayName="Table_R" ref="B1:G32" totalsRowShown="0">
   <autoFilter ref="B1:G32" xr:uid="{52C6C1A6-97C1-45E7-A0A8-AC4DEEF38E41}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3E493199-460D-4CC6-BCF9-1F657999F667}" name="Name (Script)" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{94E9E532-2CAA-4594-A0DE-99F618EDAF2E}" name="Date modified" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{B5293F9F-F4D7-4115-950F-282FCFC67ACE}" name="Date created" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{3E493199-460D-4CC6-BCF9-1F657999F667}" name="Name (Script)" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{94E9E532-2CAA-4594-A0DE-99F618EDAF2E}" name="Date modified" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{B5293F9F-F4D7-4115-950F-282FCFC67ACE}" name="Date created" dataDxfId="0"/>
     <tableColumn id="10" xr3:uid="{F138E115-F71A-4075-B0A1-5531D146FE7E}" name="Parameters"/>
     <tableColumn id="13" xr3:uid="{F566EA0D-3EFD-4627-967C-4351B23E78FA}" name="Inputs"/>
     <tableColumn id="14" xr3:uid="{37F01C8C-EF75-48EF-B040-6A098E77CD90}" name="Outputs"/>
@@ -973,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7000636-2C5B-4C5C-8281-7EDADCA87A10}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1029,10 +1041,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1">
@@ -1055,14 +1067,14 @@
         <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1">
@@ -1081,20 +1093,20 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>54</v>
       </c>
-      <c r="I3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1">
@@ -1107,14 +1119,14 @@
         <v>52</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1">
@@ -1124,7 +1136,7 @@
         <v>44987.414666608798</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="3">
         <v>44987</v>
@@ -1134,10 +1146,10 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1">
@@ -1147,7 +1159,7 @@
         <v>44704.459097141204</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="3">
         <v>44987</v>
@@ -1156,13 +1168,42 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45126.436111111114</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45125.512499999997</v>
+      </c>
+      <c r="E7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="3">
+        <v>45125</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1175,11 +1216,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E811C3-7647-468F-9D6B-3967D7C68597}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1239,7 +1280,7 @@
       </c>
       <c r="F2" s="3"/>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1257,7 +1298,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1275,7 +1316,7 @@
       </c>
       <c r="F4" s="3"/>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1293,7 +1334,7 @@
       </c>
       <c r="F5" s="3"/>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1324,7 +1365,7 @@
         <v>45008.414467627314</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1341,7 +1382,7 @@
         <v>44704.459097141204</v>
       </c>
       <c r="J8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1358,7 +1399,7 @@
         <v>44704.459097141204</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1375,24 +1416,52 @@
         <v>44824.510536620372</v>
       </c>
       <c r="J10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1">
+        <v>45125.589756944442</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45125.781284722223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45125.781284722223</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45125.781284722223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
         <v>45098.7244750463</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D13" s="1">
         <v>44704.459097141204</v>
       </c>
-      <c r="J11" t="s">
-        <v>136</v>
+      <c r="J13" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1408,9 +1477,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADE9E95-37F7-4760-88E7-EFAE1293A818}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1422,10 +1491,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -1434,7 +1503,7 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
         <v>19</v>
@@ -1445,7 +1514,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
@@ -1457,18 +1526,18 @@
         <v>44798.426320451392</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>77</v>
+      <c r="A3" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -1480,12 +1549,12 @@
         <v>45008.41446753472</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -1497,15 +1566,15 @@
         <v>45008.41446753472</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -1517,15 +1586,15 @@
         <v>45008.41446753472</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>80</v>
+      <c r="A6" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -1537,15 +1606,15 @@
         <v>45008.41446753472</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -1557,15 +1626,15 @@
         <v>45008.41446753472</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -1577,15 +1646,15 @@
         <v>44706.459565462967</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
@@ -1599,7 +1668,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -1611,15 +1680,15 @@
         <v>44824.4257496875</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>89</v>
+      <c r="A11" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
@@ -1631,15 +1700,15 @@
         <v>44824.4257496875</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>94</v>
+      <c r="A12" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -1651,12 +1720,12 @@
         <v>44706.464226307871</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>95</v>
+      <c r="A13" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -1668,15 +1737,15 @@
         <v>44706.464226307871</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>96</v>
+      <c r="A14" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -1688,15 +1757,15 @@
         <v>44706.464226307871</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>97</v>
+      <c r="A15" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -1708,12 +1777,12 @@
         <v>44706.464226307871</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>98</v>
+      <c r="A16" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
@@ -1725,18 +1794,18 @@
         <v>44706.464226307871</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>99</v>
+      <c r="A17" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
@@ -1748,15 +1817,15 @@
         <v>44706.464226307871</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>100</v>
+      <c r="A18" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -1768,10 +1837,10 @@
         <v>44706.464226307871</v>
       </c>
       <c r="F18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1790,7 +1859,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
@@ -1802,10 +1871,10 @@
         <v>44872.616010243059</v>
       </c>
       <c r="F20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1822,12 +1891,12 @@
         <v>45091.551290810188</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
@@ -1839,15 +1908,15 @@
         <v>44887.384496423612</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>114</v>
+      <c r="A23" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
@@ -1859,15 +1928,15 @@
         <v>44887.384496423612</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
@@ -1879,15 +1948,15 @@
         <v>44887.384496423612</v>
       </c>
       <c r="F24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
         <v>42</v>
@@ -1899,15 +1968,15 @@
         <v>44704.459096967592</v>
       </c>
       <c r="E25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>123</v>
+      <c r="A26" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
@@ -1919,18 +1988,18 @@
         <v>45008.414467581017</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>70</v>
+      <c r="A27" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
@@ -1942,18 +2011,18 @@
         <v>45008.414467581017</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>125</v>
+      <c r="A28" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="B28" t="s">
         <v>44</v>
@@ -1965,12 +2034,12 @@
         <v>44704.459096967592</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>72</v>
+      <c r="A29" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B29" t="s">
         <v>45</v>
@@ -1981,16 +2050,19 @@
       <c r="D29" s="1">
         <v>44798.426320393519</v>
       </c>
+      <c r="E29" t="s">
+        <v>140</v>
+      </c>
       <c r="F29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>73</v>
+      <c r="A30" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="B30" t="s">
         <v>46</v>
@@ -2002,15 +2074,15 @@
         <v>45008.414467581017</v>
       </c>
       <c r="F30" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>74</v>
+      <c r="A31" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
@@ -2022,12 +2094,12 @@
         <v>44798.426320439816</v>
       </c>
       <c r="G31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>124</v>
+      <c r="A32" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
